--- a/plotTPD_data programs/Guaiacol Area_output.xlsx
+++ b/plotTPD_data programs/Guaiacol Area_output.xlsx
@@ -14,18 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>CO</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Formaldehyde</t>
+  </si>
+  <si>
+    <t>Phenol</t>
+  </si>
+  <si>
+    <t>Ketene</t>
+  </si>
+  <si>
+    <t>31-ol</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>GUA</t>
   </si>
   <si>
-    <t>CH4</t>
-  </si>
-  <si>
-    <t>H2</t>
+    <t>Anisole</t>
   </si>
   <si>
     <t>L</t>
@@ -386,15 +395,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -408,56 +417,118 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0.0015</v>
       </c>
       <c r="B2">
-        <v>734754.3425045775</v>
+        <v>-1</v>
       </c>
       <c r="C2">
-        <v>281.9922447266213</v>
+        <v>-1</v>
       </c>
       <c r="D2">
         <v>-1</v>
       </c>
       <c r="E2">
-        <v>570430.0977630471</v>
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>-1</v>
+      </c>
+      <c r="G2">
+        <v>140.7861622996497</v>
+      </c>
+      <c r="H2">
+        <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0.005</v>
       </c>
       <c r="B3">
-        <v>876038.8667336175</v>
+        <v>-1</v>
       </c>
       <c r="C3">
-        <v>659.2990917222119</v>
+        <v>-1</v>
       </c>
       <c r="D3">
         <v>-1</v>
       </c>
       <c r="E3">
-        <v>709640.5193698623</v>
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>-1</v>
+      </c>
+      <c r="G3">
+        <v>304.4323654583499</v>
+      </c>
+      <c r="H3">
+        <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>0.025</v>
       </c>
       <c r="B4">
-        <v>891572.8953203686</v>
+        <v>-1</v>
       </c>
       <c r="C4">
-        <v>795.8628539838379</v>
+        <v>-1</v>
       </c>
       <c r="D4">
         <v>-1</v>
       </c>
       <c r="E4">
-        <v>775656.3527167377</v>
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>-1</v>
+      </c>
+      <c r="G4">
+        <v>722.7970382671076</v>
+      </c>
+      <c r="H4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>0.025</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5">
+        <v>722.7638425077499</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/plotTPD_data programs/Guaiacol Area_output.xlsx
+++ b/plotTPD_data programs/Guaiacol Area_output.xlsx
@@ -16,25 +16,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>GUA</t>
+  </si>
+  <si>
+    <t>Anisole</t>
+  </si>
+  <si>
     <t>Formaldehyde</t>
   </si>
   <si>
+    <t>Ketene</t>
+  </si>
+  <si>
     <t>Phenol</t>
   </si>
   <si>
-    <t>Ketene</t>
-  </si>
-  <si>
     <t>31-ol</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>GUA</t>
-  </si>
-  <si>
-    <t>Anisole</t>
   </si>
   <si>
     <t>L</t>
@@ -435,7 +435,7 @@
         <v>-1</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>6.24763304593392e-05</v>
       </c>
       <c r="D2">
         <v>-1</v>
@@ -447,7 +447,7 @@
         <v>-1</v>
       </c>
       <c r="G2">
-        <v>140.7861622996497</v>
+        <v>-1</v>
       </c>
       <c r="H2">
         <v>-1</v>
@@ -461,7 +461,7 @@
         <v>-1</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>0.0001350972052666111</v>
       </c>
       <c r="D3">
         <v>-1</v>
@@ -473,7 +473,7 @@
         <v>-1</v>
       </c>
       <c r="G3">
-        <v>304.4323654583499</v>
+        <v>-1</v>
       </c>
       <c r="H3">
         <v>-1</v>
@@ -487,7 +487,7 @@
         <v>-1</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>0.0003207538715466487</v>
       </c>
       <c r="D4">
         <v>-1</v>
@@ -499,7 +499,7 @@
         <v>-1</v>
       </c>
       <c r="G4">
-        <v>722.7970382671076</v>
+        <v>-1</v>
       </c>
       <c r="H4">
         <v>-1</v>
@@ -513,7 +513,7 @@
         <v>-1</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>0.0003207391403458147</v>
       </c>
       <c r="D5">
         <v>-1</v>
@@ -525,7 +525,7 @@
         <v>-1</v>
       </c>
       <c r="G5">
-        <v>722.7638425077499</v>
+        <v>-1</v>
       </c>
       <c r="H5">
         <v>-1</v>

--- a/plotTPD_data programs/Guaiacol Area_output.xlsx
+++ b/plotTPD_data programs/Guaiacol Area_output.xlsx
@@ -14,27 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>C</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Formaldehyde</t>
+  </si>
+  <si>
+    <t>31-ol</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Ketene</t>
   </si>
   <si>
     <t>GUA</t>
   </si>
   <si>
+    <t>Phenol</t>
+  </si>
+  <si>
+    <t>Benzene</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
     <t>Anisole</t>
-  </si>
-  <si>
-    <t>Formaldehyde</t>
-  </si>
-  <si>
-    <t>Ketene</t>
-  </si>
-  <si>
-    <t>Phenol</t>
-  </si>
-  <si>
-    <t>31-ol</t>
   </si>
   <si>
     <t>L</t>
@@ -395,15 +404,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -426,34 +435,52 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>0.0015</v>
+        <v>0.005</v>
       </c>
       <c r="B2">
         <v>-1</v>
       </c>
       <c r="C2">
-        <v>6.24763304593392e-05</v>
+        <v>-1</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <v>0.3887576224770117</v>
       </c>
       <c r="E2">
         <v>-1</v>
       </c>
       <c r="F2">
-        <v>-1</v>
+        <v>0.0001350972052666111</v>
       </c>
       <c r="G2">
         <v>-1</v>
       </c>
       <c r="H2">
+        <v>0.0001598395346943968</v>
+      </c>
+      <c r="I2">
+        <v>-1</v>
+      </c>
+      <c r="J2">
+        <v>0.3149154353758455</v>
+      </c>
+      <c r="K2">
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>0.005</v>
       </c>
@@ -461,73 +488,65 @@
         <v>-1</v>
       </c>
       <c r="C3">
-        <v>0.0001350972052666111</v>
+        <v>-1</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>0.2744870712788617</v>
       </c>
       <c r="E3">
         <v>-1</v>
       </c>
       <c r="F3">
-        <v>-1</v>
+        <v>0.0002925755433144696</v>
       </c>
       <c r="G3">
         <v>-1</v>
       </c>
       <c r="H3">
+        <v>0.0001598395346943968</v>
+      </c>
+      <c r="I3">
+        <v>-1</v>
+      </c>
+      <c r="J3">
+        <v>0.2612268537486789</v>
+      </c>
+      <c r="K3">
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>0.025</v>
+        <v>0.005</v>
       </c>
       <c r="B4">
         <v>-1</v>
       </c>
       <c r="C4">
-        <v>0.0003207538715466487</v>
+        <v>-1</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>0.2744870712788617</v>
       </c>
       <c r="E4">
         <v>-1</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>0.0002064301184433375</v>
       </c>
       <c r="G4">
         <v>-1</v>
       </c>
       <c r="H4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>0.025</v>
-      </c>
-      <c r="B5">
-        <v>-1</v>
-      </c>
-      <c r="C5">
-        <v>0.0003207391403458147</v>
-      </c>
-      <c r="D5">
-        <v>-1</v>
-      </c>
-      <c r="E5">
-        <v>-1</v>
-      </c>
-      <c r="F5">
-        <v>-1</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-      <c r="H5">
+        <v>0.0001598395346943968</v>
+      </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
+      <c r="J4">
+        <v>0.2612268537486789</v>
+      </c>
+      <c r="K4">
         <v>-1</v>
       </c>
     </row>

--- a/plotTPD_data programs/Guaiacol Area_output.xlsx
+++ b/plotTPD_data programs/Guaiacol Area_output.xlsx
@@ -14,33 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>GUA</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Benzene</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>Ketene</t>
+  </si>
+  <si>
+    <t>31-ol</t>
+  </si>
+  <si>
+    <t>Phenol</t>
+  </si>
   <si>
     <t>Formaldehyde</t>
   </si>
   <si>
-    <t>31-ol</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Ketene</t>
-  </si>
-  <si>
-    <t>GUA</t>
-  </si>
-  <si>
-    <t>Phenol</t>
-  </si>
-  <si>
-    <t>Benzene</t>
-  </si>
-  <si>
-    <t>CH4</t>
-  </si>
-  <si>
-    <t>H2</t>
+    <t>C</t>
   </si>
   <si>
     <t>Anisole</t>
@@ -404,15 +407,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -444,109 +447,159 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
-        <v>0.005</v>
+        <v>0.025</v>
       </c>
       <c r="B2">
-        <v>-1</v>
+        <v>0.0003207538715466487</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>0.3956511203002214</v>
       </c>
       <c r="D2">
-        <v>0.3887576224770117</v>
+        <v>0.000461691353572199</v>
       </c>
       <c r="E2">
-        <v>-1</v>
+        <v>0.344211120067851</v>
       </c>
       <c r="F2">
-        <v>0.0001350972052666111</v>
+        <v>-1</v>
       </c>
       <c r="G2">
         <v>-1</v>
       </c>
       <c r="H2">
-        <v>0.0001598395346943968</v>
+        <v>-1</v>
       </c>
       <c r="I2">
         <v>-1</v>
       </c>
       <c r="J2">
-        <v>0.3149154353758455</v>
+        <v>-1</v>
       </c>
       <c r="K2">
         <v>-1</v>
       </c>
+      <c r="L2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
-        <v>0.005</v>
+        <v>0.025</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>0.0003531781096495647</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>0.3182925009770032</v>
       </c>
       <c r="D3">
-        <v>0.2744870712788617</v>
+        <v>0.000461691353572199</v>
       </c>
       <c r="E3">
-        <v>-1</v>
+        <v>0.3243059475577101</v>
       </c>
       <c r="F3">
-        <v>0.0002925755433144696</v>
+        <v>-1</v>
       </c>
       <c r="G3">
         <v>-1</v>
       </c>
       <c r="H3">
-        <v>0.0001598395346943968</v>
+        <v>-1</v>
       </c>
       <c r="I3">
         <v>-1</v>
       </c>
       <c r="J3">
-        <v>0.2612268537486789</v>
+        <v>-1</v>
       </c>
       <c r="K3">
         <v>-1</v>
       </c>
+      <c r="L3">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
-        <v>0.005</v>
+        <v>0.025</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>0.0003207391403458147</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>0.3182925009770032</v>
       </c>
       <c r="D4">
-        <v>0.2744870712788617</v>
+        <v>0.000461691353572199</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>0.3243059475577101</v>
       </c>
       <c r="F4">
-        <v>0.0002064301184433375</v>
+        <v>-1</v>
       </c>
       <c r="G4">
         <v>-1</v>
       </c>
       <c r="H4">
-        <v>0.0001598395346943968</v>
+        <v>-1</v>
       </c>
       <c r="I4">
         <v>-1</v>
       </c>
       <c r="J4">
-        <v>0.2612268537486789</v>
+        <v>-1</v>
       </c>
       <c r="K4">
+        <v>-1</v>
+      </c>
+      <c r="L4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>0.025</v>
+      </c>
+      <c r="B5">
+        <v>0.000342746256103513</v>
+      </c>
+      <c r="C5">
+        <v>0.3182925009770032</v>
+      </c>
+      <c r="D5">
+        <v>0.000461691353572199</v>
+      </c>
+      <c r="E5">
+        <v>0.3243059475577101</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <v>-1</v>
+      </c>
+      <c r="J5">
+        <v>-1</v>
+      </c>
+      <c r="K5">
+        <v>-1</v>
+      </c>
+      <c r="L5">
         <v>-1</v>
       </c>
     </row>

--- a/plotTPD_data programs/Guaiacol Area_output.xlsx
+++ b/plotTPD_data programs/Guaiacol Area_output.xlsx
@@ -14,42 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>CH4</t>
+  </si>
   <si>
     <t>GUA</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Benzene</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>CH4</t>
+    <t>L</t>
   </si>
   <si>
-    <t>Ketene</t>
-  </si>
-  <si>
-    <t>31-ol</t>
-  </si>
-  <si>
-    <t>Phenol</t>
-  </si>
-  <si>
-    <t>Formaldehyde</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Anisole</t>
-  </si>
-  <si>
-    <t>L</t>
+    <t>CO</t>
   </si>
 </sst>
 </file>
@@ -407,16 +386,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,175 +408,25 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0003207538715466487</v>
+        <v>-1</v>
       </c>
       <c r="C2">
-        <v>0.3956511203002214</v>
+        <v>361.1050826355155</v>
       </c>
       <c r="D2">
-        <v>0.000461691353572199</v>
+        <v>964617.6548960898</v>
       </c>
       <c r="E2">
-        <v>0.344211120067851</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-1</v>
-      </c>
-      <c r="G2">
-        <v>-1</v>
-      </c>
-      <c r="H2">
-        <v>-1</v>
-      </c>
-      <c r="I2">
-        <v>-1</v>
-      </c>
-      <c r="J2">
-        <v>-1</v>
-      </c>
-      <c r="K2">
-        <v>-1</v>
-      </c>
-      <c r="L2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1">
-        <v>0.025</v>
-      </c>
-      <c r="B3">
-        <v>0.0003531781096495647</v>
-      </c>
-      <c r="C3">
-        <v>0.3182925009770032</v>
-      </c>
-      <c r="D3">
-        <v>0.000461691353572199</v>
-      </c>
-      <c r="E3">
-        <v>0.3243059475577101</v>
-      </c>
-      <c r="F3">
-        <v>-1</v>
-      </c>
-      <c r="G3">
-        <v>-1</v>
-      </c>
-      <c r="H3">
-        <v>-1</v>
-      </c>
-      <c r="I3">
-        <v>-1</v>
-      </c>
-      <c r="J3">
-        <v>-1</v>
-      </c>
-      <c r="K3">
-        <v>-1</v>
-      </c>
-      <c r="L3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1">
-        <v>0.025</v>
-      </c>
-      <c r="B4">
-        <v>0.0003207391403458147</v>
-      </c>
-      <c r="C4">
-        <v>0.3182925009770032</v>
-      </c>
-      <c r="D4">
-        <v>0.000461691353572199</v>
-      </c>
-      <c r="E4">
-        <v>0.3243059475577101</v>
-      </c>
-      <c r="F4">
-        <v>-1</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-      <c r="H4">
-        <v>-1</v>
-      </c>
-      <c r="I4">
-        <v>-1</v>
-      </c>
-      <c r="J4">
-        <v>-1</v>
-      </c>
-      <c r="K4">
-        <v>-1</v>
-      </c>
-      <c r="L4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1">
-        <v>0.025</v>
-      </c>
-      <c r="B5">
-        <v>0.000342746256103513</v>
-      </c>
-      <c r="C5">
-        <v>0.3182925009770032</v>
-      </c>
-      <c r="D5">
-        <v>0.000461691353572199</v>
-      </c>
-      <c r="E5">
-        <v>0.3243059475577101</v>
-      </c>
-      <c r="F5">
-        <v>-1</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-      <c r="H5">
-        <v>-1</v>
-      </c>
-      <c r="I5">
-        <v>-1</v>
-      </c>
-      <c r="J5">
-        <v>-1</v>
-      </c>
-      <c r="K5">
-        <v>-1</v>
-      </c>
-      <c r="L5">
-        <v>-1</v>
+        <v>1010099.505812122</v>
       </c>
     </row>
   </sheetData>

--- a/plotTPD_data programs/Guaiacol Area_output.xlsx
+++ b/plotTPD_data programs/Guaiacol Area_output.xlsx
@@ -14,21 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>CH4</t>
+    <t>Benzene</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>H2</t>
   </si>
   <si>
     <t>GUA</t>
   </si>
   <si>
-    <t>H2</t>
+    <t>CO</t>
   </si>
   <si>
     <t>L</t>
-  </si>
-  <si>
-    <t>CO</t>
   </si>
 </sst>
 </file>
@@ -386,13 +389,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,19 +420,239 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-1</v>
+        <v>130.495370872766</v>
       </c>
       <c r="C2">
-        <v>361.1050826355155</v>
+        <v>-1</v>
       </c>
       <c r="D2">
-        <v>964617.6548960898</v>
+        <v>42270.59050742528</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>100.9674103598983</v>
       </c>
       <c r="F2">
-        <v>1010099.505812122</v>
+        <v>97235.86444604037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>0.0015</v>
+      </c>
+      <c r="B3">
+        <v>192.1396028988327</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>420502.3141884356</v>
+      </c>
+      <c r="E3">
+        <v>223.032094617698</v>
+      </c>
+      <c r="F3">
+        <v>466558.6723132834</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>0.0025</v>
+      </c>
+      <c r="B4">
+        <v>283.9423419977066</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>498828.4103071447</v>
+      </c>
+      <c r="E4">
+        <v>339.2936895991878</v>
+      </c>
+      <c r="F4">
+        <v>518858.8653104431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>0.005</v>
+      </c>
+      <c r="B5">
+        <v>360.1433526765259</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>588621.5482490049</v>
+      </c>
+      <c r="E5">
+        <v>465.1606516528508</v>
+      </c>
+      <c r="F5">
+        <v>618011.339546936</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>0.0075</v>
+      </c>
+      <c r="B6">
+        <v>473.3123347487816</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>625289.399405553</v>
+      </c>
+      <c r="E6">
+        <v>394.7824960729399</v>
+      </c>
+      <c r="F6">
+        <v>634991.5892255482</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="B7">
+        <v>678.304407656639</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>698053.7774327198</v>
+      </c>
+      <c r="E7">
+        <v>646.5295977141673</v>
+      </c>
+      <c r="F7">
+        <v>680027.5341767367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>0.015</v>
+      </c>
+      <c r="B8">
+        <v>827.3278651720424</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>734899.762426463</v>
+      </c>
+      <c r="E8">
+        <v>771.4421799424308</v>
+      </c>
+      <c r="F8">
+        <v>717815.0339180568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>0.025</v>
+      </c>
+      <c r="B9">
+        <v>1040.143481892348</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9">
+        <v>730694.2263911149</v>
+      </c>
+      <c r="E9">
+        <v>772.3835390316979</v>
+      </c>
+      <c r="F9">
+        <v>717265.5781501379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>0.035</v>
+      </c>
+      <c r="B10">
+        <v>1033.134311399147</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <v>731370.6349867075</v>
+      </c>
+      <c r="E10">
+        <v>937.9147705445021</v>
+      </c>
+      <c r="F10">
+        <v>716117.6460513269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="B11">
+        <v>1150.491349357336</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>740044.7817249084</v>
+      </c>
+      <c r="E11">
+        <v>751.2620087433099</v>
+      </c>
+      <c r="F11">
+        <v>712357.4606182515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="B12">
+        <v>1201.937726251009</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="D12">
+        <v>726360.8306834709</v>
+      </c>
+      <c r="E12">
+        <v>703.8870880934717</v>
+      </c>
+      <c r="F12">
+        <v>716228.5907921764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="B13">
+        <v>1152.320481191679</v>
+      </c>
+      <c r="C13">
+        <v>-1</v>
+      </c>
+      <c r="D13">
+        <v>745412.6856482853</v>
+      </c>
+      <c r="E13">
+        <v>1042.227220360049</v>
+      </c>
+      <c r="F13">
+        <v>719596.6232340143</v>
       </c>
     </row>
   </sheetData>

--- a/plotTPD_data programs/Guaiacol Area_output.xlsx
+++ b/plotTPD_data programs/Guaiacol Area_output.xlsx
@@ -16,19 +16,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Benzene</t>
+    <t>GUA</t>
   </si>
   <si>
-    <t>H2O</t>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Benzene</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>GUA</t>
-  </si>
-  <si>
-    <t>CO</t>
+    <t>H2O</t>
   </si>
   <si>
     <t>L</t>
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,19 +420,19 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>100.9674103598983</v>
+      </c>
+      <c r="C2">
+        <v>97235.86444604037</v>
+      </c>
+      <c r="D2">
         <v>130.495370872766</v>
       </c>
-      <c r="C2">
-        <v>-1</v>
-      </c>
-      <c r="D2">
+      <c r="E2">
         <v>42270.59050742528</v>
       </c>
-      <c r="E2">
-        <v>100.9674103598983</v>
-      </c>
       <c r="F2">
-        <v>97235.86444604037</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -440,19 +440,19 @@
         <v>0.0015</v>
       </c>
       <c r="B3">
+        <v>223.032094617698</v>
+      </c>
+      <c r="C3">
+        <v>466558.6723132834</v>
+      </c>
+      <c r="D3">
         <v>192.1396028988327</v>
       </c>
-      <c r="C3">
-        <v>-1</v>
-      </c>
-      <c r="D3">
+      <c r="E3">
         <v>420502.3141884356</v>
       </c>
-      <c r="E3">
-        <v>223.032094617698</v>
-      </c>
       <c r="F3">
-        <v>466558.6723132834</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -460,199 +460,139 @@
         <v>0.0025</v>
       </c>
       <c r="B4">
+        <v>339.2936895991878</v>
+      </c>
+      <c r="C4">
+        <v>518858.8653104431</v>
+      </c>
+      <c r="D4">
         <v>283.9423419977066</v>
       </c>
-      <c r="C4">
-        <v>-1</v>
-      </c>
-      <c r="D4">
+      <c r="E4">
         <v>498828.4103071447</v>
       </c>
-      <c r="E4">
-        <v>339.2936895991878</v>
-      </c>
       <c r="F4">
-        <v>518858.8653104431</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>0.005</v>
+        <v>0.0075</v>
       </c>
       <c r="B5">
-        <v>360.1433526765259</v>
+        <v>394.7824960729399</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>634991.5892255482</v>
       </c>
       <c r="D5">
-        <v>588621.5482490049</v>
+        <v>473.3123347487816</v>
       </c>
       <c r="E5">
-        <v>465.1606516528508</v>
+        <v>625289.399405553</v>
       </c>
       <c r="F5">
-        <v>618011.339546936</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>0.0075</v>
+        <v>0.015</v>
       </c>
       <c r="B6">
-        <v>473.3123347487816</v>
+        <v>771.4421799424308</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>717815.0339180568</v>
       </c>
       <c r="D6">
-        <v>625289.399405553</v>
+        <v>827.3278651720424</v>
       </c>
       <c r="E6">
-        <v>394.7824960729399</v>
+        <v>734899.762426463</v>
       </c>
       <c r="F6">
-        <v>634991.5892255482</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>0.01</v>
+        <v>0.025</v>
       </c>
       <c r="B7">
-        <v>678.304407656639</v>
+        <v>772.3835390316979</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>717265.5781501379</v>
       </c>
       <c r="D7">
-        <v>698053.7774327198</v>
+        <v>1040.143481892348</v>
       </c>
       <c r="E7">
-        <v>646.5295977141673</v>
+        <v>730694.2263911149</v>
       </c>
       <c r="F7">
-        <v>680027.5341767367</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>0.015</v>
+        <v>0.05</v>
       </c>
       <c r="B8">
-        <v>827.3278651720424</v>
+        <v>751.2620087433099</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>712357.4606182515</v>
       </c>
       <c r="D8">
-        <v>734899.762426463</v>
+        <v>1150.491349357336</v>
       </c>
       <c r="E8">
-        <v>771.4421799424308</v>
+        <v>740044.7817249084</v>
       </c>
       <c r="F8">
-        <v>717815.0339180568</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>0.025</v>
+        <v>0.09</v>
       </c>
       <c r="B9">
-        <v>1040.143481892348</v>
+        <v>703.8870880934717</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>716228.5907921764</v>
       </c>
       <c r="D9">
-        <v>730694.2263911149</v>
+        <v>1201.937726251009</v>
       </c>
       <c r="E9">
-        <v>772.3835390316979</v>
+        <v>726360.8306834709</v>
       </c>
       <c r="F9">
-        <v>717265.5781501379</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>0.035</v>
+        <v>0.15</v>
       </c>
       <c r="B10">
-        <v>1033.134311399147</v>
+        <v>1042.227220360049</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>719596.6232340143</v>
       </c>
       <c r="D10">
-        <v>731370.6349867075</v>
+        <v>1152.320481191679</v>
       </c>
       <c r="E10">
-        <v>937.9147705445021</v>
+        <v>745412.6856482853</v>
       </c>
       <c r="F10">
-        <v>716117.6460513269</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="B11">
-        <v>1150.491349357336</v>
-      </c>
-      <c r="C11">
-        <v>-1</v>
-      </c>
-      <c r="D11">
-        <v>740044.7817249084</v>
-      </c>
-      <c r="E11">
-        <v>751.2620087433099</v>
-      </c>
-      <c r="F11">
-        <v>712357.4606182515</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="B12">
-        <v>1201.937726251009</v>
-      </c>
-      <c r="C12">
-        <v>-1</v>
-      </c>
-      <c r="D12">
-        <v>726360.8306834709</v>
-      </c>
-      <c r="E12">
-        <v>703.8870880934717</v>
-      </c>
-      <c r="F12">
-        <v>716228.5907921764</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="B13">
-        <v>1152.320481191679</v>
-      </c>
-      <c r="C13">
-        <v>-1</v>
-      </c>
-      <c r="D13">
-        <v>745412.6856482853</v>
-      </c>
-      <c r="E13">
-        <v>1042.227220360049</v>
-      </c>
-      <c r="F13">
-        <v>719596.6232340143</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/plotTPD_data programs/Guaiacol Area_output.xlsx
+++ b/plotTPD_data programs/Guaiacol Area_output.xlsx
@@ -19,16 +19,16 @@
     <t>GUA</t>
   </si>
   <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
     <t>CO</t>
   </si>
   <si>
     <t>Benzene</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>H2O</t>
   </si>
   <si>
     <t>L</t>
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,16 +423,16 @@
         <v>100.9674103598983</v>
       </c>
       <c r="C2">
+        <v>42270.59050742528</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2">
         <v>97235.86444604037</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>130.495370872766</v>
-      </c>
-      <c r="E2">
-        <v>42270.59050742528</v>
-      </c>
-      <c r="F2">
-        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -443,16 +443,16 @@
         <v>223.032094617698</v>
       </c>
       <c r="C3">
+        <v>420502.3141884356</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
         <v>466558.6723132834</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>192.1396028988327</v>
-      </c>
-      <c r="E3">
-        <v>420502.3141884356</v>
-      </c>
-      <c r="F3">
-        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -463,136 +463,196 @@
         <v>339.2936895991878</v>
       </c>
       <c r="C4">
+        <v>498828.4103071447</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
         <v>518858.8653104431</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>283.9423419977066</v>
-      </c>
-      <c r="E4">
-        <v>498828.4103071447</v>
-      </c>
-      <c r="F4">
-        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>0.0075</v>
+        <v>0.005</v>
       </c>
       <c r="B5">
-        <v>394.7824960729399</v>
+        <v>465.1606516528508</v>
       </c>
       <c r="C5">
-        <v>634991.5892255482</v>
+        <v>588621.5482490049</v>
       </c>
       <c r="D5">
-        <v>473.3123347487816</v>
+        <v>-1</v>
       </c>
       <c r="E5">
-        <v>625289.399405553</v>
+        <v>618011.339546936</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>360.1433526765259</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>0.015</v>
+        <v>0.0075</v>
       </c>
       <c r="B6">
-        <v>771.4421799424308</v>
+        <v>394.7824960729399</v>
       </c>
       <c r="C6">
-        <v>717815.0339180568</v>
+        <v>625289.399405553</v>
       </c>
       <c r="D6">
-        <v>827.3278651720424</v>
+        <v>-1</v>
       </c>
       <c r="E6">
-        <v>734899.762426463</v>
+        <v>634991.5892255482</v>
       </c>
       <c r="F6">
-        <v>-1</v>
+        <v>473.3123347487816</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>0.025</v>
+        <v>0.01</v>
       </c>
       <c r="B7">
-        <v>772.3835390316979</v>
+        <v>646.5295977141673</v>
       </c>
       <c r="C7">
-        <v>717265.5781501379</v>
+        <v>698053.7774327198</v>
       </c>
       <c r="D7">
-        <v>1040.143481892348</v>
+        <v>-1</v>
       </c>
       <c r="E7">
-        <v>730694.2263911149</v>
+        <v>680027.5341767367</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>678.304407656639</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>0.05</v>
+        <v>0.015</v>
       </c>
       <c r="B8">
-        <v>751.2620087433099</v>
+        <v>771.4421799424308</v>
       </c>
       <c r="C8">
-        <v>712357.4606182515</v>
+        <v>734899.762426463</v>
       </c>
       <c r="D8">
-        <v>1150.491349357336</v>
+        <v>-1</v>
       </c>
       <c r="E8">
-        <v>740044.7817249084</v>
+        <v>717815.0339180568</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>827.3278651720424</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>0.09</v>
+        <v>0.025</v>
       </c>
       <c r="B9">
-        <v>703.8870880934717</v>
+        <v>772.3835390316979</v>
       </c>
       <c r="C9">
-        <v>716228.5907921764</v>
+        <v>730694.2263911149</v>
       </c>
       <c r="D9">
-        <v>1201.937726251009</v>
+        <v>-1</v>
       </c>
       <c r="E9">
-        <v>726360.8306834709</v>
+        <v>717265.5781501379</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>1040.143481892348</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
+        <v>0.035</v>
+      </c>
+      <c r="B10">
+        <v>937.9147705445021</v>
+      </c>
+      <c r="C10">
+        <v>731370.6349867075</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>716117.6460513269</v>
+      </c>
+      <c r="F10">
+        <v>1033.134311399147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="B11">
+        <v>751.2620087433099</v>
+      </c>
+      <c r="C11">
+        <v>740044.7817249084</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>712357.4606182515</v>
+      </c>
+      <c r="F11">
+        <v>1150.491349357336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="B12">
+        <v>703.8870880934717</v>
+      </c>
+      <c r="C12">
+        <v>726360.8306834709</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12">
+        <v>716228.5907921764</v>
+      </c>
+      <c r="F12">
+        <v>1201.937726251009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
         <v>0.15</v>
       </c>
-      <c r="B10">
+      <c r="B13">
         <v>1042.227220360049</v>
       </c>
-      <c r="C10">
+      <c r="C13">
+        <v>745412.6856482853</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13">
         <v>719596.6232340143</v>
       </c>
-      <c r="D10">
+      <c r="F13">
         <v>1152.320481191679</v>
-      </c>
-      <c r="E10">
-        <v>745412.6856482853</v>
-      </c>
-      <c r="F10">
-        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/plotTPD_data programs/Guaiacol Area_output.xlsx
+++ b/plotTPD_data programs/Guaiacol Area_output.xlsx
@@ -14,21 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Benzene</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>Catechol</t>
+  </si>
+  <si>
+    <t>Ketene</t>
+  </si>
+  <si>
+    <t>31-ol</t>
+  </si>
+  <si>
+    <t>Formaldehyde</t>
+  </si>
   <si>
     <t>GUA</t>
   </si>
   <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>H2O</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Benzene</t>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>Phenol</t>
+  </si>
+  <si>
+    <t>Anisole</t>
+  </si>
+  <si>
+    <t>Water</t>
   </si>
   <si>
     <t>L</t>
@@ -389,15 +410,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -414,245 +435,231 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="B2">
-        <v>100.9674103598983</v>
+        <v>510918.5491931516</v>
       </c>
       <c r="C2">
-        <v>42270.59050742528</v>
+        <v>491.427683825042</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <v>364450.6469075389</v>
       </c>
       <c r="E2">
-        <v>97235.86444604037</v>
+        <v>-1</v>
       </c>
       <c r="F2">
-        <v>130.495370872766</v>
+        <v>-1</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+      <c r="H2">
+        <v>-1</v>
+      </c>
+      <c r="I2">
+        <v>1081.30128206303</v>
+      </c>
+      <c r="J2">
+        <v>-1</v>
+      </c>
+      <c r="K2">
+        <v>-1</v>
+      </c>
+      <c r="L2">
+        <v>-1</v>
+      </c>
+      <c r="M2">
+        <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
-        <v>0.0015</v>
+        <v>0.05</v>
       </c>
       <c r="B3">
-        <v>223.032094617698</v>
+        <v>327435.9558298829</v>
       </c>
       <c r="C3">
-        <v>420502.3141884356</v>
+        <v>2155.170337249132</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>289706.2329605084</v>
       </c>
       <c r="E3">
-        <v>466558.6723132834</v>
+        <v>-1</v>
       </c>
       <c r="F3">
-        <v>192.1396028988327</v>
+        <v>-1</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+      <c r="H3">
+        <v>-1</v>
+      </c>
+      <c r="I3">
+        <v>383.1008825632222</v>
+      </c>
+      <c r="J3">
+        <v>-1</v>
+      </c>
+      <c r="K3">
+        <v>-1</v>
+      </c>
+      <c r="L3">
+        <v>-1</v>
+      </c>
+      <c r="M3">
+        <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>0.0025</v>
+        <v>0.05</v>
       </c>
       <c r="B4">
-        <v>339.2936895991878</v>
+        <v>377405.8142258437</v>
       </c>
       <c r="C4">
-        <v>498828.4103071447</v>
+        <v>46593.16838838173</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>504946.7677026168</v>
       </c>
       <c r="E4">
-        <v>518858.8653104431</v>
+        <v>-1</v>
       </c>
       <c r="F4">
-        <v>283.9423419977066</v>
+        <v>-1</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+      <c r="H4">
+        <v>-1</v>
+      </c>
+      <c r="I4">
+        <v>2387.897475523234</v>
+      </c>
+      <c r="J4">
+        <v>-1</v>
+      </c>
+      <c r="K4">
+        <v>-1</v>
+      </c>
+      <c r="L4">
+        <v>-1</v>
+      </c>
+      <c r="M4">
+        <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
-        <v>0.005</v>
+        <v>0.05</v>
       </c>
       <c r="B5">
-        <v>465.1606516528508</v>
+        <v>331680.7369388788</v>
       </c>
       <c r="C5">
-        <v>588621.5482490049</v>
+        <v>46593.16838838173</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>406637.6590336512</v>
       </c>
       <c r="E5">
-        <v>618011.339546936</v>
+        <v>-1</v>
       </c>
       <c r="F5">
-        <v>360.1433526765259</v>
+        <v>-1</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <v>5114.526458621097</v>
+      </c>
+      <c r="J5">
+        <v>-1</v>
+      </c>
+      <c r="K5">
+        <v>-1</v>
+      </c>
+      <c r="L5">
+        <v>-1</v>
+      </c>
+      <c r="M5">
+        <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>0.0075</v>
+        <v>0.05</v>
       </c>
       <c r="B6">
-        <v>394.7824960729399</v>
+        <v>322982.7734546368</v>
       </c>
       <c r="C6">
-        <v>625289.399405553</v>
+        <v>46593.16838838173</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>274794.851531385</v>
       </c>
       <c r="E6">
-        <v>634991.5892255482</v>
+        <v>-1</v>
       </c>
       <c r="F6">
-        <v>473.3123347487816</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="B7">
-        <v>646.5295977141673</v>
-      </c>
-      <c r="C7">
-        <v>698053.7774327198</v>
-      </c>
-      <c r="D7">
-        <v>-1</v>
-      </c>
-      <c r="E7">
-        <v>680027.5341767367</v>
-      </c>
-      <c r="F7">
-        <v>678.304407656639</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>0.015</v>
-      </c>
-      <c r="B8">
-        <v>771.4421799424308</v>
-      </c>
-      <c r="C8">
-        <v>734899.762426463</v>
-      </c>
-      <c r="D8">
-        <v>-1</v>
-      </c>
-      <c r="E8">
-        <v>717815.0339180568</v>
-      </c>
-      <c r="F8">
-        <v>827.3278651720424</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>0.025</v>
-      </c>
-      <c r="B9">
-        <v>772.3835390316979</v>
-      </c>
-      <c r="C9">
-        <v>730694.2263911149</v>
-      </c>
-      <c r="D9">
-        <v>-1</v>
-      </c>
-      <c r="E9">
-        <v>717265.5781501379</v>
-      </c>
-      <c r="F9">
-        <v>1040.143481892348</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>0.035</v>
-      </c>
-      <c r="B10">
-        <v>937.9147705445021</v>
-      </c>
-      <c r="C10">
-        <v>731370.6349867075</v>
-      </c>
-      <c r="D10">
-        <v>-1</v>
-      </c>
-      <c r="E10">
-        <v>716117.6460513269</v>
-      </c>
-      <c r="F10">
-        <v>1033.134311399147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="B11">
-        <v>751.2620087433099</v>
-      </c>
-      <c r="C11">
-        <v>740044.7817249084</v>
-      </c>
-      <c r="D11">
-        <v>-1</v>
-      </c>
-      <c r="E11">
-        <v>712357.4606182515</v>
-      </c>
-      <c r="F11">
-        <v>1150.491349357336</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="B12">
-        <v>703.8870880934717</v>
-      </c>
-      <c r="C12">
-        <v>726360.8306834709</v>
-      </c>
-      <c r="D12">
-        <v>-1</v>
-      </c>
-      <c r="E12">
-        <v>716228.5907921764</v>
-      </c>
-      <c r="F12">
-        <v>1201.937726251009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="B13">
-        <v>1042.227220360049</v>
-      </c>
-      <c r="C13">
-        <v>745412.6856482853</v>
-      </c>
-      <c r="D13">
-        <v>-1</v>
-      </c>
-      <c r="E13">
-        <v>719596.6232340143</v>
-      </c>
-      <c r="F13">
-        <v>1152.320481191679</v>
+        <v>-1</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6">
+        <v>-1</v>
+      </c>
+      <c r="I6">
+        <v>385.9589632099833</v>
+      </c>
+      <c r="J6">
+        <v>-1</v>
+      </c>
+      <c r="K6">
+        <v>-1</v>
+      </c>
+      <c r="L6">
+        <v>-1</v>
+      </c>
+      <c r="M6">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/plotTPD_data programs/Guaiacol Area_output.xlsx
+++ b/plotTPD_data programs/Guaiacol Area_output.xlsx
@@ -14,42 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>Formaldehyde</t>
+  </si>
   <si>
     <t>CO</t>
   </si>
   <si>
-    <t>Benzene</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>Catechol</t>
-  </si>
-  <si>
-    <t>Ketene</t>
-  </si>
-  <si>
-    <t>31-ol</t>
-  </si>
-  <si>
-    <t>Formaldehyde</t>
-  </si>
-  <si>
-    <t>GUA</t>
-  </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>Phenol</t>
-  </si>
-  <si>
-    <t>Anisole</t>
-  </si>
-  <si>
     <t>Water</t>
+  </si>
+  <si>
+    <t>Ethylene</t>
+  </si>
+  <si>
+    <t>Furan</t>
+  </si>
+  <si>
+    <t>CH4</t>
   </si>
   <si>
     <t>L</t>
@@ -410,15 +398,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -444,34 +432,22 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>510918.5491931516</v>
+        <v>-1</v>
       </c>
       <c r="C2">
-        <v>491.427683825042</v>
+        <v>1941702.563249692</v>
       </c>
       <c r="D2">
-        <v>364450.6469075389</v>
+        <v>-1</v>
       </c>
       <c r="E2">
-        <v>-1</v>
+        <v>383620.9250747957</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -483,36 +459,24 @@
         <v>-1</v>
       </c>
       <c r="I2">
-        <v>1081.30128206303</v>
-      </c>
-      <c r="J2">
-        <v>-1</v>
-      </c>
-      <c r="K2">
-        <v>-1</v>
-      </c>
-      <c r="L2">
-        <v>-1</v>
-      </c>
-      <c r="M2">
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>327435.9558298829</v>
+        <v>-1</v>
       </c>
       <c r="C3">
-        <v>2155.170337249132</v>
+        <v>1349573.291890112</v>
       </c>
       <c r="D3">
-        <v>289706.2329605084</v>
+        <v>-1</v>
       </c>
       <c r="E3">
-        <v>-1</v>
+        <v>361204.5097034721</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -524,36 +488,24 @@
         <v>-1</v>
       </c>
       <c r="I3">
-        <v>383.1008825632222</v>
-      </c>
-      <c r="J3">
-        <v>-1</v>
-      </c>
-      <c r="K3">
-        <v>-1</v>
-      </c>
-      <c r="L3">
-        <v>-1</v>
-      </c>
-      <c r="M3">
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>377405.8142258437</v>
+        <v>-1</v>
       </c>
       <c r="C4">
-        <v>46593.16838838173</v>
+        <v>1813241.882306312</v>
       </c>
       <c r="D4">
-        <v>504946.7677026168</v>
+        <v>-1</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>168630.206704366</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -565,100 +517,6 @@
         <v>-1</v>
       </c>
       <c r="I4">
-        <v>2387.897475523234</v>
-      </c>
-      <c r="J4">
-        <v>-1</v>
-      </c>
-      <c r="K4">
-        <v>-1</v>
-      </c>
-      <c r="L4">
-        <v>-1</v>
-      </c>
-      <c r="M4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="B5">
-        <v>331680.7369388788</v>
-      </c>
-      <c r="C5">
-        <v>46593.16838838173</v>
-      </c>
-      <c r="D5">
-        <v>406637.6590336512</v>
-      </c>
-      <c r="E5">
-        <v>-1</v>
-      </c>
-      <c r="F5">
-        <v>-1</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-      <c r="H5">
-        <v>-1</v>
-      </c>
-      <c r="I5">
-        <v>5114.526458621097</v>
-      </c>
-      <c r="J5">
-        <v>-1</v>
-      </c>
-      <c r="K5">
-        <v>-1</v>
-      </c>
-      <c r="L5">
-        <v>-1</v>
-      </c>
-      <c r="M5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="B6">
-        <v>322982.7734546368</v>
-      </c>
-      <c r="C6">
-        <v>46593.16838838173</v>
-      </c>
-      <c r="D6">
-        <v>274794.851531385</v>
-      </c>
-      <c r="E6">
-        <v>-1</v>
-      </c>
-      <c r="F6">
-        <v>-1</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-      <c r="H6">
-        <v>-1</v>
-      </c>
-      <c r="I6">
-        <v>385.9589632099833</v>
-      </c>
-      <c r="J6">
-        <v>-1</v>
-      </c>
-      <c r="K6">
-        <v>-1</v>
-      </c>
-      <c r="L6">
-        <v>-1</v>
-      </c>
-      <c r="M6">
         <v>-1</v>
       </c>
     </row>

--- a/plotTPD_data programs/Guaiacol Area_output.xlsx
+++ b/plotTPD_data programs/Guaiacol Area_output.xlsx
@@ -14,30 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>CO2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>H2</t>
   </si>
   <si>
+    <t>Phenol</t>
+  </si>
+  <si>
+    <t>Benzene</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>31-ol</t>
+  </si>
+  <si>
+    <t>CH4</t>
+  </si>
+  <si>
+    <t>Ketene</t>
+  </si>
+  <si>
+    <t>GUA</t>
+  </si>
+  <si>
     <t>Formaldehyde</t>
   </si>
   <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Ethylene</t>
-  </si>
-  <si>
-    <t>Furan</t>
-  </si>
-  <si>
-    <t>CH4</t>
+    <t>Anisole</t>
   </si>
   <si>
     <t>L</t>
@@ -398,15 +407,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -432,22 +441,31 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="B2">
-        <v>-1</v>
+        <v>775558.4827498094</v>
       </c>
       <c r="C2">
-        <v>1941702.563249692</v>
+        <v>-1</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <v>192.1888657940042</v>
       </c>
       <c r="E2">
-        <v>383620.9250747957</v>
+        <v>966335.9769091408</v>
       </c>
       <c r="F2">
         <v>-1</v>
@@ -461,22 +479,31 @@
       <c r="I2">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>141.0684491789146</v>
+      </c>
+      <c r="K2">
+        <v>-1</v>
+      </c>
+      <c r="L2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="B3">
-        <v>-1</v>
+        <v>730688.6440168284</v>
       </c>
       <c r="C3">
-        <v>1349573.291890112</v>
+        <v>-1</v>
       </c>
       <c r="D3">
-        <v>-1</v>
+        <v>192.1888657940042</v>
       </c>
       <c r="E3">
-        <v>361204.5097034721</v>
+        <v>804532.602062373</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -490,22 +517,31 @@
       <c r="I3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>284.6333833688429</v>
+      </c>
+      <c r="K3">
+        <v>-1</v>
+      </c>
+      <c r="L3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>420428.1309043836</v>
       </c>
       <c r="C4">
-        <v>1813241.882306312</v>
+        <v>-1</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>192.1888657940042</v>
       </c>
       <c r="E4">
-        <v>168630.206704366</v>
+        <v>521620.2872528377</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -517,6 +553,281 @@
         <v>-1</v>
       </c>
       <c r="I4">
+        <v>-1</v>
+      </c>
+      <c r="J4">
+        <v>223.034626778876</v>
+      </c>
+      <c r="K4">
+        <v>-1</v>
+      </c>
+      <c r="L4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>0.005</v>
+      </c>
+      <c r="B5">
+        <v>709465.5999152951</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>1040.291331879298</v>
+      </c>
+      <c r="E5">
+        <v>946626.1174401584</v>
+      </c>
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5">
+        <v>-1</v>
+      </c>
+      <c r="I5">
+        <v>-1</v>
+      </c>
+      <c r="J5">
+        <v>304.6054976052977</v>
+      </c>
+      <c r="K5">
+        <v>-1</v>
+      </c>
+      <c r="L5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>0.005</v>
+      </c>
+      <c r="B6">
+        <v>570593.3766003374</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>360.1786409020218</v>
+      </c>
+      <c r="E6">
+        <v>795602.203877889</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6">
+        <v>-1</v>
+      </c>
+      <c r="I6">
+        <v>-1</v>
+      </c>
+      <c r="J6">
+        <v>658.201174932445</v>
+      </c>
+      <c r="K6">
+        <v>-1</v>
+      </c>
+      <c r="L6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>0.005</v>
+      </c>
+      <c r="B7">
+        <v>420428.1309043836</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>192.1888657940042</v>
+      </c>
+      <c r="E7">
+        <v>521620.2872528377</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <v>-1</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+      <c r="J7">
+        <v>465.1807271000569</v>
+      </c>
+      <c r="K7">
+        <v>-1</v>
+      </c>
+      <c r="L7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>0.025</v>
+      </c>
+      <c r="B8">
+        <v>588481.0315602918</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>192.1888657940042</v>
+      </c>
+      <c r="E8">
+        <v>681164.6047165834</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8">
+        <v>-1</v>
+      </c>
+      <c r="I8">
+        <v>-1</v>
+      </c>
+      <c r="J8">
+        <v>722.778970614687</v>
+      </c>
+      <c r="K8">
+        <v>-1</v>
+      </c>
+      <c r="L8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>0.025</v>
+      </c>
+      <c r="B9">
+        <v>420428.1309043836</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9">
+        <v>192.1888657940042</v>
+      </c>
+      <c r="E9">
+        <v>521620.2872528377</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="H9">
+        <v>-1</v>
+      </c>
+      <c r="I9">
+        <v>-1</v>
+      </c>
+      <c r="J9">
+        <v>796.1848608445193</v>
+      </c>
+      <c r="K9">
+        <v>-1</v>
+      </c>
+      <c r="L9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>0.025</v>
+      </c>
+      <c r="B10">
+        <v>420428.1309043836</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <v>192.1888657940042</v>
+      </c>
+      <c r="E10">
+        <v>521620.2872528377</v>
+      </c>
+      <c r="F10">
+        <v>-1</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+      <c r="H10">
+        <v>-1</v>
+      </c>
+      <c r="I10">
+        <v>-1</v>
+      </c>
+      <c r="J10">
+        <v>723.1370295953805</v>
+      </c>
+      <c r="K10">
+        <v>-1</v>
+      </c>
+      <c r="L10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>0.025</v>
+      </c>
+      <c r="B11">
+        <v>420428.1309043836</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>192.1888657940042</v>
+      </c>
+      <c r="E11">
+        <v>521620.2872528377</v>
+      </c>
+      <c r="F11">
+        <v>-1</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+      <c r="H11">
+        <v>-1</v>
+      </c>
+      <c r="I11">
+        <v>-1</v>
+      </c>
+      <c r="J11">
+        <v>772.3893907209838</v>
+      </c>
+      <c r="K11">
+        <v>-1</v>
+      </c>
+      <c r="L11">
         <v>-1</v>
       </c>
     </row>

--- a/plotTPD_data programs/Guaiacol Area_output.xlsx
+++ b/plotTPD_data programs/Guaiacol Area_output.xlsx
@@ -14,39 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>H2</t>
+    <t>Water</t>
   </si>
   <si>
-    <t>Phenol</t>
+    <t>GUA</t>
+  </si>
+  <si>
+    <t>CO</t>
   </si>
   <si>
     <t>Benzene</t>
   </si>
   <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>31-ol</t>
-  </si>
-  <si>
-    <t>CH4</t>
-  </si>
-  <si>
-    <t>Ketene</t>
-  </si>
-  <si>
-    <t>GUA</t>
-  </si>
-  <si>
-    <t>Formaldehyde</t>
-  </si>
-  <si>
-    <t>Anisole</t>
+    <t>H2</t>
   </si>
   <si>
     <t>L</t>
@@ -407,15 +389,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -432,403 +414,245 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>0.0015</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>775558.4827498094</v>
+        <v>-1</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>100.9031153755845</v>
       </c>
       <c r="D2">
-        <v>192.1888657940042</v>
+        <v>101767.2630499781</v>
       </c>
       <c r="E2">
-        <v>966335.9769091408</v>
+        <v>130.4650801285416</v>
       </c>
       <c r="F2">
-        <v>-1</v>
-      </c>
-      <c r="G2">
-        <v>-1</v>
-      </c>
-      <c r="H2">
-        <v>-1</v>
-      </c>
-      <c r="I2">
-        <v>-1</v>
-      </c>
-      <c r="J2">
-        <v>141.0684491789146</v>
-      </c>
-      <c r="K2">
-        <v>-1</v>
-      </c>
-      <c r="L2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>42348.63346193412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>0.0015</v>
       </c>
       <c r="B3">
-        <v>730688.6440168284</v>
+        <v>-1</v>
       </c>
       <c r="C3">
-        <v>-1</v>
+        <v>223.034626778876</v>
       </c>
       <c r="D3">
+        <v>521620.2872528377</v>
+      </c>
+      <c r="E3">
         <v>192.1888657940042</v>
       </c>
-      <c r="E3">
-        <v>804532.602062373</v>
-      </c>
       <c r="F3">
-        <v>-1</v>
-      </c>
-      <c r="G3">
-        <v>-1</v>
-      </c>
-      <c r="H3">
-        <v>-1</v>
-      </c>
-      <c r="I3">
-        <v>-1</v>
-      </c>
-      <c r="J3">
-        <v>284.6333833688429</v>
-      </c>
-      <c r="K3">
-        <v>-1</v>
-      </c>
-      <c r="L3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>420428.1309043836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>0.0015</v>
+        <v>0.0025</v>
       </c>
       <c r="B4">
-        <v>420428.1309043836</v>
+        <v>-1</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>339.2788436309526</v>
       </c>
       <c r="D4">
-        <v>192.1888657940042</v>
+        <v>551629.8496383539</v>
       </c>
       <c r="E4">
-        <v>521620.2872528377</v>
+        <v>283.9560478173095</v>
       </c>
       <c r="F4">
-        <v>-1</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-      <c r="H4">
-        <v>-1</v>
-      </c>
-      <c r="I4">
-        <v>-1</v>
-      </c>
-      <c r="J4">
-        <v>223.034626778876</v>
-      </c>
-      <c r="K4">
-        <v>-1</v>
-      </c>
-      <c r="L4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>498932.5255893225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>0.005</v>
       </c>
       <c r="B5">
-        <v>709465.5999152951</v>
+        <v>-1</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>465.1807271000569</v>
       </c>
       <c r="D5">
-        <v>1040.291331879298</v>
+        <v>681164.6047165834</v>
       </c>
       <c r="E5">
-        <v>946626.1174401584</v>
+        <v>360.1786409020218</v>
       </c>
       <c r="F5">
-        <v>-1</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-      <c r="H5">
-        <v>-1</v>
-      </c>
-      <c r="I5">
-        <v>-1</v>
-      </c>
-      <c r="J5">
-        <v>304.6054976052977</v>
-      </c>
-      <c r="K5">
-        <v>-1</v>
-      </c>
-      <c r="L5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>588481.0315602918</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>0.005</v>
+        <v>0.0075</v>
       </c>
       <c r="B6">
-        <v>570593.3766003374</v>
+        <v>-1</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>394.7961739130043</v>
       </c>
       <c r="D6">
-        <v>360.1786409020218</v>
+        <v>665087.4234433988</v>
       </c>
       <c r="E6">
-        <v>795602.203877889</v>
+        <v>473.2321595798624</v>
       </c>
       <c r="F6">
-        <v>-1</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-      <c r="H6">
-        <v>-1</v>
-      </c>
-      <c r="I6">
-        <v>-1</v>
-      </c>
-      <c r="J6">
-        <v>658.201174932445</v>
-      </c>
-      <c r="K6">
-        <v>-1</v>
-      </c>
-      <c r="L6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>625394.7784060101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="B7">
-        <v>420428.1309043836</v>
+        <v>-1</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>646.5509007383389</v>
       </c>
       <c r="D7">
-        <v>192.1888657940042</v>
+        <v>745472.6342895934</v>
       </c>
       <c r="E7">
-        <v>521620.2872528377</v>
+        <v>678.2527786615456</v>
       </c>
       <c r="F7">
-        <v>-1</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-      <c r="H7">
-        <v>-1</v>
-      </c>
-      <c r="I7">
-        <v>-1</v>
-      </c>
-      <c r="J7">
-        <v>465.1807271000569</v>
-      </c>
-      <c r="K7">
-        <v>-1</v>
-      </c>
-      <c r="L7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>697956.9060251359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>0.025</v>
+        <v>0.015</v>
       </c>
       <c r="B8">
-        <v>588481.0315602918</v>
+        <v>-1</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>771.9062671769528</v>
       </c>
       <c r="D8">
-        <v>192.1888657940042</v>
+        <v>787059.6078377434</v>
       </c>
       <c r="E8">
-        <v>681164.6047165834</v>
+        <v>827.265104584761</v>
       </c>
       <c r="F8">
-        <v>-1</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-      <c r="H8">
-        <v>-1</v>
-      </c>
-      <c r="I8">
-        <v>-1</v>
-      </c>
-      <c r="J8">
-        <v>722.778970614687</v>
-      </c>
-      <c r="K8">
-        <v>-1</v>
-      </c>
-      <c r="L8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>734678.1828283533</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>0.025</v>
       </c>
       <c r="B9">
-        <v>420428.1309043836</v>
+        <v>-1</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>772.3893907209838</v>
       </c>
       <c r="D9">
-        <v>192.1888657940042</v>
+        <v>804532.602062373</v>
       </c>
       <c r="E9">
-        <v>521620.2872528377</v>
+        <v>1040.291331879298</v>
       </c>
       <c r="F9">
-        <v>-1</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-      <c r="H9">
-        <v>-1</v>
-      </c>
-      <c r="I9">
-        <v>-1</v>
-      </c>
-      <c r="J9">
-        <v>796.1848608445193</v>
-      </c>
-      <c r="K9">
-        <v>-1</v>
-      </c>
-      <c r="L9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>730688.6440168284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>0.025</v>
+        <v>0.035</v>
       </c>
       <c r="B10">
-        <v>420428.1309043836</v>
+        <v>-1</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>938.0828206807664</v>
       </c>
       <c r="D10">
-        <v>192.1888657940042</v>
+        <v>778352.1583332322</v>
       </c>
       <c r="E10">
-        <v>521620.2872528377</v>
+        <v>1033.295247007901</v>
       </c>
       <c r="F10">
-        <v>-1</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-      <c r="H10">
-        <v>-1</v>
-      </c>
-      <c r="I10">
-        <v>-1</v>
-      </c>
-      <c r="J10">
-        <v>723.1370295953805</v>
-      </c>
-      <c r="K10">
-        <v>-1</v>
-      </c>
-      <c r="L10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>731480.641309642</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>0.025</v>
+        <v>0.05</v>
       </c>
       <c r="B11">
-        <v>420428.1309043836</v>
+        <v>-1</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>751.507102560797</v>
       </c>
       <c r="D11">
-        <v>192.1888657940042</v>
+        <v>779513.5383968834</v>
       </c>
       <c r="E11">
-        <v>521620.2872528377</v>
+        <v>1150.511324432135</v>
       </c>
       <c r="F11">
-        <v>-1</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-      <c r="H11">
-        <v>-1</v>
-      </c>
-      <c r="I11">
-        <v>-1</v>
-      </c>
-      <c r="J11">
-        <v>772.3893907209838</v>
-      </c>
-      <c r="K11">
-        <v>-1</v>
-      </c>
-      <c r="L11">
-        <v>-1</v>
+        <v>739984.1634050561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="B12">
+        <v>-1</v>
+      </c>
+      <c r="C12">
+        <v>703.8870880934717</v>
+      </c>
+      <c r="D12">
+        <v>758326.4259832263</v>
+      </c>
+      <c r="E12">
+        <v>1201.937726251009</v>
+      </c>
+      <c r="F12">
+        <v>726360.8306834709</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="B13">
+        <v>-1</v>
+      </c>
+      <c r="C13">
+        <v>1042.314641910106</v>
+      </c>
+      <c r="D13">
+        <v>841881.1499586799</v>
+      </c>
+      <c r="E13">
+        <v>1152.24018865904</v>
+      </c>
+      <c r="F13">
+        <v>745619.142100472</v>
       </c>
     </row>
   </sheetData>

--- a/plotTPD_data programs/Guaiacol Area_output.xlsx
+++ b/plotTPD_data programs/Guaiacol Area_output.xlsx
@@ -14,21 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Water</t>
   </si>
   <si>
-    <t>GUA</t>
-  </si>
-  <si>
     <t>CO</t>
   </si>
   <si>
-    <t>Benzene</t>
+    <t>Acetic acid60</t>
+  </si>
+  <si>
+    <t>Acetic acid43</t>
   </si>
   <si>
     <t>H2</t>
+  </si>
+  <si>
+    <t>Acetaldehyde</t>
+  </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>Ketene</t>
   </si>
   <si>
     <t>L</t>
@@ -389,15 +398,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -414,8 +423,17 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -423,236 +441,286 @@
         <v>-1</v>
       </c>
       <c r="C2">
-        <v>100.9031153755845</v>
+        <v>7.854034230093641e-07</v>
       </c>
       <c r="D2">
-        <v>101767.2630499781</v>
+        <v>-1</v>
       </c>
       <c r="E2">
-        <v>130.4650801285416</v>
+        <v>-1</v>
       </c>
       <c r="F2">
-        <v>42348.63346193412</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>1.344754452073485e-06</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+      <c r="H2">
+        <v>1.508337339458633e-07</v>
+      </c>
+      <c r="I2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>9.679411364809532e-07</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>1.425025590079702e-06</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+      <c r="H3">
+        <v>1.548312768469312e-07</v>
+      </c>
+      <c r="I3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>2.297084308867809e-07</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>7.85691699323685e-07</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+      <c r="H4">
+        <v>5.130837823696827e-08</v>
+      </c>
+      <c r="I4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>0.0004</v>
+      </c>
+      <c r="B5">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>3.60997944313936e-07</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>1.071353655852663e-06</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5">
+        <v>6.899572297118856e-08</v>
+      </c>
+      <c r="I5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>0.0008</v>
+      </c>
+      <c r="B6">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>5.344915304222632e-07</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>9.715470780688246e-07</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6">
+        <v>8.338966653620486e-08</v>
+      </c>
+      <c r="I6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>0.0012</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>5.684607115088299e-07</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>8.498931841360813e-07</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <v>8.347014148745274e-08</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
         <v>0.0015</v>
       </c>
-      <c r="B3">
-        <v>-1</v>
-      </c>
-      <c r="C3">
-        <v>223.034626778876</v>
-      </c>
-      <c r="D3">
-        <v>521620.2872528377</v>
-      </c>
-      <c r="E3">
-        <v>192.1888657940042</v>
-      </c>
-      <c r="F3">
-        <v>420428.1309043836</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>0.0025</v>
-      </c>
-      <c r="B4">
-        <v>-1</v>
-      </c>
-      <c r="C4">
-        <v>339.2788436309526</v>
-      </c>
-      <c r="D4">
-        <v>551629.8496383539</v>
-      </c>
-      <c r="E4">
-        <v>283.9560478173095</v>
-      </c>
-      <c r="F4">
-        <v>498932.5255893225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>7.13044250100633e-07</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>1.291780225693964e-06</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8">
+        <v>1.173717883019646e-07</v>
+      </c>
+      <c r="I8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>0.003</v>
+      </c>
+      <c r="B9">
+        <v>-1</v>
+      </c>
+      <c r="C9">
+        <v>1.393954030881386e-06</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>2.102434816403319e-06</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="H9">
+        <v>1.566109679372073e-07</v>
+      </c>
+      <c r="I9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>0.004</v>
+      </c>
+      <c r="B10">
+        <v>-1</v>
+      </c>
+      <c r="C10">
+        <v>7.284673192826508e-07</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>-1</v>
+      </c>
+      <c r="F10">
+        <v>9.731055728278412e-07</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+      <c r="H10">
+        <v>1.063233627811376e-07</v>
+      </c>
+      <c r="I10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
         <v>0.005</v>
       </c>
-      <c r="B5">
-        <v>-1</v>
-      </c>
-      <c r="C5">
-        <v>465.1807271000569</v>
-      </c>
-      <c r="D5">
-        <v>681164.6047165834</v>
-      </c>
-      <c r="E5">
-        <v>360.1786409020218</v>
-      </c>
-      <c r="F5">
-        <v>588481.0315602918</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>0.0075</v>
-      </c>
-      <c r="B6">
-        <v>-1</v>
-      </c>
-      <c r="C6">
-        <v>394.7961739130043</v>
-      </c>
-      <c r="D6">
-        <v>665087.4234433988</v>
-      </c>
-      <c r="E6">
-        <v>473.2321595798624</v>
-      </c>
-      <c r="F6">
-        <v>625394.7784060101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="B7">
-        <v>-1</v>
-      </c>
-      <c r="C7">
-        <v>646.5509007383389</v>
-      </c>
-      <c r="D7">
-        <v>745472.6342895934</v>
-      </c>
-      <c r="E7">
-        <v>678.2527786615456</v>
-      </c>
-      <c r="F7">
-        <v>697956.9060251359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>0.015</v>
-      </c>
-      <c r="B8">
-        <v>-1</v>
-      </c>
-      <c r="C8">
-        <v>771.9062671769528</v>
-      </c>
-      <c r="D8">
-        <v>787059.6078377434</v>
-      </c>
-      <c r="E8">
-        <v>827.265104584761</v>
-      </c>
-      <c r="F8">
-        <v>734678.1828283533</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>0.025</v>
-      </c>
-      <c r="B9">
-        <v>-1</v>
-      </c>
-      <c r="C9">
-        <v>772.3893907209838</v>
-      </c>
-      <c r="D9">
-        <v>804532.602062373</v>
-      </c>
-      <c r="E9">
-        <v>1040.291331879298</v>
-      </c>
-      <c r="F9">
-        <v>730688.6440168284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>0.035</v>
-      </c>
-      <c r="B10">
-        <v>-1</v>
-      </c>
-      <c r="C10">
-        <v>938.0828206807664</v>
-      </c>
-      <c r="D10">
-        <v>778352.1583332322</v>
-      </c>
-      <c r="E10">
-        <v>1033.295247007901</v>
-      </c>
-      <c r="F10">
-        <v>731480.641309642</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>0.05</v>
-      </c>
       <c r="B11">
         <v>-1</v>
       </c>
       <c r="C11">
-        <v>751.507102560797</v>
+        <v>1.963777698429455e-06</v>
       </c>
       <c r="D11">
-        <v>779513.5383968834</v>
+        <v>-1</v>
       </c>
       <c r="E11">
-        <v>1150.511324432135</v>
+        <v>-1</v>
       </c>
       <c r="F11">
-        <v>739984.1634050561</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="B12">
-        <v>-1</v>
-      </c>
-      <c r="C12">
-        <v>703.8870880934717</v>
-      </c>
-      <c r="D12">
-        <v>758326.4259832263</v>
-      </c>
-      <c r="E12">
-        <v>1201.937726251009</v>
-      </c>
-      <c r="F12">
-        <v>726360.8306834709</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="B13">
-        <v>-1</v>
-      </c>
-      <c r="C13">
-        <v>1042.314641910106</v>
-      </c>
-      <c r="D13">
-        <v>841881.1499586799</v>
-      </c>
-      <c r="E13">
-        <v>1152.24018865904</v>
-      </c>
-      <c r="F13">
-        <v>745619.142100472</v>
+        <v>2.263595378477089e-06</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+      <c r="H11">
+        <v>2.297548297852237e-07</v>
+      </c>
+      <c r="I11">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/plotTPD_data programs/Guaiacol Area_output.xlsx
+++ b/plotTPD_data programs/Guaiacol Area_output.xlsx
@@ -14,30 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>H2</t>
+  </si>
   <si>
     <t>Water</t>
   </si>
   <si>
     <t>CO</t>
-  </si>
-  <si>
-    <t>Acetic acid60</t>
-  </si>
-  <si>
-    <t>Acetic acid43</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>Acetaldehyde</t>
-  </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>Ketene</t>
   </si>
   <si>
     <t>L</t>
@@ -398,15 +383,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -417,310 +402,61 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="B2">
+        <v>153102.4578661983</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>-1</v>
-      </c>
-      <c r="C2">
-        <v>7.854034230093641e-07</v>
-      </c>
       <c r="D2">
-        <v>-1</v>
-      </c>
-      <c r="E2">
-        <v>-1</v>
-      </c>
-      <c r="F2">
-        <v>1.344754452073485e-06</v>
-      </c>
-      <c r="G2">
-        <v>-1</v>
-      </c>
-      <c r="H2">
-        <v>1.508337339458633e-07</v>
-      </c>
-      <c r="I2">
-        <v>-1</v>
+        <v>934372.4016976687</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="B3">
+        <v>170173.1019817955</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>-1</v>
-      </c>
-      <c r="C3">
-        <v>9.679411364809532e-07</v>
-      </c>
       <c r="D3">
-        <v>-1</v>
-      </c>
-      <c r="E3">
-        <v>-1</v>
-      </c>
-      <c r="F3">
-        <v>1.425025590079702e-06</v>
-      </c>
-      <c r="G3">
-        <v>-1</v>
-      </c>
-      <c r="H3">
-        <v>1.548312768469312e-07</v>
-      </c>
-      <c r="I3">
-        <v>-1</v>
+        <v>704980.0550878344</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="B4">
+        <v>267279.9187324445</v>
+      </c>
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="B4">
-        <v>-1</v>
-      </c>
-      <c r="C4">
-        <v>2.297084308867809e-07</v>
-      </c>
       <c r="D4">
-        <v>-1</v>
-      </c>
-      <c r="E4">
-        <v>-1</v>
-      </c>
-      <c r="F4">
-        <v>7.85691699323685e-07</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-      <c r="H4">
-        <v>5.130837823696827e-08</v>
-      </c>
-      <c r="I4">
-        <v>-1</v>
+        <v>1146447.746176497</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
-        <v>0.0004</v>
+        <v>6.6</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>282477.2492253264</v>
       </c>
       <c r="C5">
-        <v>3.60997944313936e-07</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>-1</v>
-      </c>
-      <c r="E5">
-        <v>-1</v>
-      </c>
-      <c r="F5">
-        <v>1.071353655852663e-06</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-      <c r="H5">
-        <v>6.899572297118856e-08</v>
-      </c>
-      <c r="I5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>0.0008</v>
-      </c>
-      <c r="B6">
-        <v>-1</v>
-      </c>
-      <c r="C6">
-        <v>5.344915304222632e-07</v>
-      </c>
-      <c r="D6">
-        <v>-1</v>
-      </c>
-      <c r="E6">
-        <v>-1</v>
-      </c>
-      <c r="F6">
-        <v>9.715470780688246e-07</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-      <c r="H6">
-        <v>8.338966653620486e-08</v>
-      </c>
-      <c r="I6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>0.0012</v>
-      </c>
-      <c r="B7">
-        <v>-1</v>
-      </c>
-      <c r="C7">
-        <v>5.684607115088299e-07</v>
-      </c>
-      <c r="D7">
-        <v>-1</v>
-      </c>
-      <c r="E7">
-        <v>-1</v>
-      </c>
-      <c r="F7">
-        <v>8.498931841360813e-07</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-      <c r="H7">
-        <v>8.347014148745274e-08</v>
-      </c>
-      <c r="I7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>0.0015</v>
-      </c>
-      <c r="B8">
-        <v>-1</v>
-      </c>
-      <c r="C8">
-        <v>7.13044250100633e-07</v>
-      </c>
-      <c r="D8">
-        <v>-1</v>
-      </c>
-      <c r="E8">
-        <v>-1</v>
-      </c>
-      <c r="F8">
-        <v>1.291780225693964e-06</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-      <c r="H8">
-        <v>1.173717883019646e-07</v>
-      </c>
-      <c r="I8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>0.003</v>
-      </c>
-      <c r="B9">
-        <v>-1</v>
-      </c>
-      <c r="C9">
-        <v>1.393954030881386e-06</v>
-      </c>
-      <c r="D9">
-        <v>-1</v>
-      </c>
-      <c r="E9">
-        <v>-1</v>
-      </c>
-      <c r="F9">
-        <v>2.102434816403319e-06</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
-      <c r="H9">
-        <v>1.566109679372073e-07</v>
-      </c>
-      <c r="I9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>0.004</v>
-      </c>
-      <c r="B10">
-        <v>-1</v>
-      </c>
-      <c r="C10">
-        <v>7.284673192826508e-07</v>
-      </c>
-      <c r="D10">
-        <v>-1</v>
-      </c>
-      <c r="E10">
-        <v>-1</v>
-      </c>
-      <c r="F10">
-        <v>9.731055728278412e-07</v>
-      </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
-      <c r="H10">
-        <v>1.063233627811376e-07</v>
-      </c>
-      <c r="I10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>0.005</v>
-      </c>
-      <c r="B11">
-        <v>-1</v>
-      </c>
-      <c r="C11">
-        <v>1.963777698429455e-06</v>
-      </c>
-      <c r="D11">
-        <v>-1</v>
-      </c>
-      <c r="E11">
-        <v>-1</v>
-      </c>
-      <c r="F11">
-        <v>2.263595378477089e-06</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-      <c r="H11">
-        <v>2.297548297852237e-07</v>
-      </c>
-      <c r="I11">
-        <v>-1</v>
+        <v>1220976.74902309</v>
       </c>
     </row>
   </sheetData>
